--- a/data/pca/factorExposure/factorExposure_2009-05-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-05-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01763122814415761</v>
+        <v>-0.01718217078856831</v>
       </c>
       <c r="C2">
-        <v>-0.002176598468621825</v>
+        <v>-0.001405472834956663</v>
       </c>
       <c r="D2">
-        <v>0.008516185755258025</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009076021637481117</v>
+      </c>
+      <c r="E2">
+        <v>0.001529930765262971</v>
+      </c>
+      <c r="F2">
+        <v>-0.01349467783459133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08750218180059913</v>
+        <v>-0.09077309683225285</v>
       </c>
       <c r="C4">
-        <v>-0.0202646760432243</v>
+        <v>-0.01559146231526144</v>
       </c>
       <c r="D4">
-        <v>0.08049923427113348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0837177003124214</v>
+      </c>
+      <c r="E4">
+        <v>0.02861356777118025</v>
+      </c>
+      <c r="F4">
+        <v>0.03240263928823963</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-6.372153748790729e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>6.035464458140473e-05</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>0.0001445284387957166</v>
+      </c>
+      <c r="E5">
+        <v>5.030576574299495e-05</v>
+      </c>
+      <c r="F5">
+        <v>-0.000148323421828254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1559585550114373</v>
+        <v>-0.1638419813990179</v>
       </c>
       <c r="C6">
-        <v>-0.03346875984479408</v>
+        <v>-0.03195356519720499</v>
       </c>
       <c r="D6">
-        <v>-0.02972670630706515</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02056591441865885</v>
+      </c>
+      <c r="E6">
+        <v>0.01143061690431007</v>
+      </c>
+      <c r="F6">
+        <v>0.04085146820716131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.05682200174805332</v>
+        <v>-0.06020096519854835</v>
       </c>
       <c r="C7">
-        <v>-0.001719267594382324</v>
+        <v>0.001562291498213336</v>
       </c>
       <c r="D7">
-        <v>0.04661353494578708</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05221000526999502</v>
+      </c>
+      <c r="E7">
+        <v>0.01224163971589745</v>
+      </c>
+      <c r="F7">
+        <v>0.04799078739557456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.05999006650113534</v>
+        <v>-0.05610896794783699</v>
       </c>
       <c r="C8">
-        <v>0.009492751917203862</v>
+        <v>0.01171993019351656</v>
       </c>
       <c r="D8">
-        <v>0.02596674907716213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03066817266082845</v>
+      </c>
+      <c r="E8">
+        <v>0.01652646155827923</v>
+      </c>
+      <c r="F8">
+        <v>-0.02697683918851045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06831442959977028</v>
+        <v>-0.07070805684922982</v>
       </c>
       <c r="C9">
-        <v>-0.01610309088085245</v>
+        <v>-0.01110797046313778</v>
       </c>
       <c r="D9">
-        <v>0.08339848466180261</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08721995136353937</v>
+      </c>
+      <c r="E9">
+        <v>0.02504623643723421</v>
+      </c>
+      <c r="F9">
+        <v>0.04898896730510711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08732933816294385</v>
+        <v>-0.08757701225203068</v>
       </c>
       <c r="C10">
-        <v>-0.01900231721692016</v>
+        <v>-0.02318247550099896</v>
       </c>
       <c r="D10">
-        <v>-0.1684835175570156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1589894070694413</v>
+      </c>
+      <c r="E10">
+        <v>-0.03261891730672863</v>
+      </c>
+      <c r="F10">
+        <v>-0.05918155077094299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.08859736083036659</v>
+        <v>-0.08559178729013331</v>
       </c>
       <c r="C11">
-        <v>-0.01743911841032555</v>
+        <v>-0.01204344588782068</v>
       </c>
       <c r="D11">
-        <v>0.1148032501128051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1198687292804046</v>
+      </c>
+      <c r="E11">
+        <v>0.05083860371956393</v>
+      </c>
+      <c r="F11">
+        <v>0.02560494549663287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09605238730771327</v>
+        <v>-0.09022004414485704</v>
       </c>
       <c r="C12">
-        <v>-0.01620652359787915</v>
+        <v>-0.009938752949972263</v>
       </c>
       <c r="D12">
-        <v>0.1215477149731026</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1355073661728939</v>
+      </c>
+      <c r="E12">
+        <v>0.05345058602718041</v>
+      </c>
+      <c r="F12">
+        <v>0.03195097101938644</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04420756586523721</v>
+        <v>-0.04380740401347547</v>
       </c>
       <c r="C13">
-        <v>-0.006735421696312337</v>
+        <v>-0.003230061818469965</v>
       </c>
       <c r="D13">
-        <v>0.048600890909065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05519066383206676</v>
+      </c>
+      <c r="E13">
+        <v>0.001004431084738296</v>
+      </c>
+      <c r="F13">
+        <v>0.004095932496172628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0186259034957817</v>
+        <v>-0.02215243647943439</v>
       </c>
       <c r="C14">
-        <v>-0.01488220573912899</v>
+        <v>-0.01368055506547153</v>
       </c>
       <c r="D14">
-        <v>0.03257914487110015</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03362169138283421</v>
+      </c>
+      <c r="E14">
+        <v>0.0211506464715252</v>
+      </c>
+      <c r="F14">
+        <v>0.01311630331806111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03458488692725113</v>
+        <v>-0.03475830625913519</v>
       </c>
       <c r="C15">
-        <v>-0.008035927565725885</v>
+        <v>-0.006208250064427225</v>
       </c>
       <c r="D15">
-        <v>0.04822416717923358</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04785314576852059</v>
+      </c>
+      <c r="E15">
+        <v>0.007546843594990577</v>
+      </c>
+      <c r="F15">
+        <v>0.02983717632814504</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07196642235542526</v>
+        <v>-0.07004470278157177</v>
       </c>
       <c r="C16">
-        <v>-0.007142266389557555</v>
+        <v>-0.001591796424579651</v>
       </c>
       <c r="D16">
-        <v>0.1176695026243297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.130400364065445</v>
+      </c>
+      <c r="E16">
+        <v>0.06499628898483269</v>
+      </c>
+      <c r="F16">
+        <v>0.02864384365926137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.001529681860873034</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0004273856476884838</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002355437059743683</v>
+      </c>
+      <c r="E17">
+        <v>0.001833903700056206</v>
+      </c>
+      <c r="F17">
+        <v>-0.001995533291925439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02594407646357424</v>
+        <v>-0.04416687235927381</v>
       </c>
       <c r="C18">
-        <v>0.001311322542174948</v>
+        <v>0.001088691118080465</v>
       </c>
       <c r="D18">
-        <v>0.02365978822529109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01835209052109796</v>
+      </c>
+      <c r="E18">
+        <v>-0.004428623745818774</v>
+      </c>
+      <c r="F18">
+        <v>-0.009414949046424231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06398678141566863</v>
+        <v>-0.06276738360358819</v>
       </c>
       <c r="C20">
-        <v>-0.006004871689360603</v>
+        <v>-0.00208913716198107</v>
       </c>
       <c r="D20">
-        <v>0.07465650283851877</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07961222498330826</v>
+      </c>
+      <c r="E20">
+        <v>0.06211007975303969</v>
+      </c>
+      <c r="F20">
+        <v>0.02992182426602514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04084218825870127</v>
+        <v>-0.0430133114488128</v>
       </c>
       <c r="C21">
-        <v>-0.01037395246059781</v>
+        <v>-0.0076689428052573</v>
       </c>
       <c r="D21">
-        <v>0.03650761004531725</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03726479263518757</v>
+      </c>
+      <c r="E21">
+        <v>0.003642691240809209</v>
+      </c>
+      <c r="F21">
+        <v>-0.02373584549578503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04033971817459038</v>
+        <v>-0.04237995116073586</v>
       </c>
       <c r="C22">
-        <v>-0.001541611143351619</v>
+        <v>-0.001140724013785304</v>
       </c>
       <c r="D22">
-        <v>0.003527981911961998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.009848031569286445</v>
+      </c>
+      <c r="E22">
+        <v>0.03437513314806755</v>
+      </c>
+      <c r="F22">
+        <v>-0.05383667979770779</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04030214959691356</v>
+        <v>-0.0423485204906254</v>
       </c>
       <c r="C23">
-        <v>-0.001528897939078059</v>
+        <v>-0.001128623995189941</v>
       </c>
       <c r="D23">
-        <v>0.003546602748442437</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.009862048959321504</v>
+      </c>
+      <c r="E23">
+        <v>0.03440369230931759</v>
+      </c>
+      <c r="F23">
+        <v>-0.0538923547817198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07969432651644673</v>
+        <v>-0.07621244787437627</v>
       </c>
       <c r="C24">
-        <v>-0.008025679579226138</v>
+        <v>-0.002507467534496668</v>
       </c>
       <c r="D24">
-        <v>0.1190614911165623</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1237893091523372</v>
+      </c>
+      <c r="E24">
+        <v>0.04976595349909581</v>
+      </c>
+      <c r="F24">
+        <v>0.0319852410218803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08433084580430816</v>
+        <v>-0.08101156746093023</v>
       </c>
       <c r="C25">
-        <v>-0.01035990152033538</v>
+        <v>-0.005413209448285445</v>
       </c>
       <c r="D25">
-        <v>0.1061400041160053</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.111423093254087</v>
+      </c>
+      <c r="E25">
+        <v>0.03511080176590924</v>
+      </c>
+      <c r="F25">
+        <v>0.02886421695414123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05753681282654039</v>
+        <v>-0.06123445862750598</v>
       </c>
       <c r="C26">
-        <v>-0.01863918964816526</v>
+        <v>-0.01536570134752519</v>
       </c>
       <c r="D26">
-        <v>0.04036732204950155</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.0489999264071859</v>
+      </c>
+      <c r="E26">
+        <v>0.02949575891864025</v>
+      </c>
+      <c r="F26">
+        <v>-0.005377994675731882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1397504675882288</v>
+        <v>-0.1475259740835572</v>
       </c>
       <c r="C28">
-        <v>-0.0200034189692977</v>
+        <v>-0.02709171645670718</v>
       </c>
       <c r="D28">
-        <v>-0.2603757065768669</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2558021805562262</v>
+      </c>
+      <c r="E28">
+        <v>-0.06424528487253157</v>
+      </c>
+      <c r="F28">
+        <v>0.004656737732919985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02522815153561794</v>
+        <v>-0.02771948448634554</v>
       </c>
       <c r="C29">
-        <v>-0.009667415225361979</v>
+        <v>-0.008974310617672227</v>
       </c>
       <c r="D29">
-        <v>0.03102543582594844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.03094772850647101</v>
+      </c>
+      <c r="E29">
+        <v>0.01661457362932568</v>
+      </c>
+      <c r="F29">
+        <v>-0.01361138000969208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05665801482216461</v>
+        <v>-0.05447463596291269</v>
       </c>
       <c r="C30">
-        <v>-0.007621105298608024</v>
+        <v>-0.002752016825223736</v>
       </c>
       <c r="D30">
-        <v>0.07845472811335806</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08641710117519545</v>
+      </c>
+      <c r="E30">
+        <v>0.01326752860986969</v>
+      </c>
+      <c r="F30">
+        <v>0.08083461834474504</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05086404724397195</v>
+        <v>-0.0513440790202136</v>
       </c>
       <c r="C31">
-        <v>-0.01828780826901728</v>
+        <v>-0.01668916976882539</v>
       </c>
       <c r="D31">
-        <v>0.02369230150715673</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02659946862385398</v>
+      </c>
+      <c r="E31">
+        <v>0.02816338055581709</v>
+      </c>
+      <c r="F31">
+        <v>-0.0007535915813993661</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04719219695865695</v>
+        <v>-0.05140789963720821</v>
       </c>
       <c r="C32">
-        <v>-0.002733151977385373</v>
+        <v>0.0008589574643333952</v>
       </c>
       <c r="D32">
-        <v>0.03122933223619456</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03556912334439088</v>
+      </c>
+      <c r="E32">
+        <v>0.03086482741393799</v>
+      </c>
+      <c r="F32">
+        <v>0.002016833479764056</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.08891118436248732</v>
+        <v>-0.08918947876483387</v>
       </c>
       <c r="C33">
-        <v>-0.01400373077013312</v>
+        <v>-0.008097561929005268</v>
       </c>
       <c r="D33">
-        <v>0.09303343520326485</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1055530324563961</v>
+      </c>
+      <c r="E33">
+        <v>0.05075742008628241</v>
+      </c>
+      <c r="F33">
+        <v>0.04458072497048261</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0676521235022684</v>
+        <v>-0.06602301216094252</v>
       </c>
       <c r="C34">
-        <v>-0.01588532944062622</v>
+        <v>-0.01091827434787845</v>
       </c>
       <c r="D34">
-        <v>0.1004232865051069</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1122672744718797</v>
+      </c>
+      <c r="E34">
+        <v>0.03859724619365545</v>
+      </c>
+      <c r="F34">
+        <v>0.03718219990455871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02622007513534825</v>
+        <v>-0.02758507783595777</v>
       </c>
       <c r="C35">
-        <v>-0.004407122564190752</v>
+        <v>-0.003862472455290578</v>
       </c>
       <c r="D35">
-        <v>0.008355038375184197</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01147495685167271</v>
+      </c>
+      <c r="E35">
+        <v>0.01725603093739069</v>
+      </c>
+      <c r="F35">
+        <v>-0.0005623716025439254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02365570049354844</v>
+        <v>-0.02826198194519017</v>
       </c>
       <c r="C36">
-        <v>-0.008566344362237455</v>
+        <v>-0.007345622018103754</v>
       </c>
       <c r="D36">
-        <v>0.03914291474380307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.04055638006340919</v>
+      </c>
+      <c r="E36">
+        <v>0.01844595898899017</v>
+      </c>
+      <c r="F36">
+        <v>0.01530439918583006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.002495462354279255</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0007477029116928367</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003065384575805762</v>
+      </c>
+      <c r="E37">
+        <v>0.000446974939268165</v>
+      </c>
+      <c r="F37">
+        <v>-0.001437486251983469</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1071077687375819</v>
+        <v>-0.09674238389841699</v>
       </c>
       <c r="C39">
-        <v>-0.02307481789328489</v>
+        <v>-0.01640729646447498</v>
       </c>
       <c r="D39">
-        <v>0.1519694885239877</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1529558553179151</v>
+      </c>
+      <c r="E39">
+        <v>0.0655048997868492</v>
+      </c>
+      <c r="F39">
+        <v>0.0212101805393172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03943993190800152</v>
+        <v>-0.04516678748883198</v>
       </c>
       <c r="C40">
-        <v>-0.01011091130846176</v>
+        <v>-0.008953924161138837</v>
       </c>
       <c r="D40">
-        <v>0.02626245269249107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03329200481544427</v>
+      </c>
+      <c r="E40">
+        <v>-0.0002397415799149544</v>
+      </c>
+      <c r="F40">
+        <v>-0.01589150197374727</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02518648919051287</v>
+        <v>-0.02771522390137661</v>
       </c>
       <c r="C41">
-        <v>-0.007986537021816394</v>
+        <v>-0.007253913908287651</v>
       </c>
       <c r="D41">
-        <v>0.008975248109894871</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01073674757860824</v>
+      </c>
+      <c r="E41">
+        <v>0.01284146897443282</v>
+      </c>
+      <c r="F41">
+        <v>-0.007142826986124877</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,122 +1531,176 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04108869940432248</v>
+        <v>-0.03970012525758826</v>
       </c>
       <c r="C43">
-        <v>-0.008698593889025327</v>
+        <v>-0.007967496567766285</v>
       </c>
       <c r="D43">
-        <v>0.01936546656563733</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02120902315966368</v>
+      </c>
+      <c r="E43">
+        <v>0.02717660344992646</v>
+      </c>
+      <c r="F43">
+        <v>-0.01550072835199987</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.05924300066317983</v>
+        <v>-0.07105825439119402</v>
       </c>
       <c r="C44">
-        <v>-0.02196008120537948</v>
+        <v>-0.01838381010099749</v>
       </c>
       <c r="D44">
-        <v>0.09088773231997245</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.08937054248789227</v>
+      </c>
+      <c r="E44">
+        <v>0.05749024798020992</v>
+      </c>
+      <c r="F44">
+        <v>0.168577170184599</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-5.87274852210772e-05</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>9.154626934305501e-06</v>
       </c>
       <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>-5.755369415086999e-05</v>
+      </c>
+      <c r="E45">
+        <v>-0.0001197328127535352</v>
+      </c>
+      <c r="F45">
+        <v>-0.0001365471057054493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02023134820953251</v>
+        <v>-0.02393914809079843</v>
       </c>
       <c r="C46">
-        <v>-0.004456203951180709</v>
+        <v>-0.003493325384942375</v>
       </c>
       <c r="D46">
-        <v>0.01104630481413164</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01417106774448721</v>
+      </c>
+      <c r="E46">
+        <v>0.03228367877724586</v>
+      </c>
+      <c r="F46">
+        <v>-0.005943535450099195</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.053865298540017</v>
+        <v>-0.05318655816525227</v>
       </c>
       <c r="C47">
-        <v>-0.006503037887358253</v>
+        <v>-0.005190562424050564</v>
       </c>
       <c r="D47">
-        <v>0.007781140365709786</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01196937774914403</v>
+      </c>
+      <c r="E47">
+        <v>0.02512562601925568</v>
+      </c>
+      <c r="F47">
+        <v>-0.0302510065610881</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04822769522082807</v>
+        <v>-0.05159489508634237</v>
       </c>
       <c r="C48">
-        <v>-0.005723335395269057</v>
+        <v>-0.002967746249170648</v>
       </c>
       <c r="D48">
-        <v>0.05010648462715573</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05282792199226399</v>
+      </c>
+      <c r="E48">
+        <v>-0.003871848513621855</v>
+      </c>
+      <c r="F48">
+        <v>0.01461011237057739</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1997232663140205</v>
+        <v>-0.2009894232977792</v>
       </c>
       <c r="C49">
-        <v>-0.02664030053436436</v>
+        <v>-0.02373041024411861</v>
       </c>
       <c r="D49">
-        <v>-0.008485940720832917</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.002698155608799479</v>
+      </c>
+      <c r="E49">
+        <v>0.02037146974924235</v>
+      </c>
+      <c r="F49">
+        <v>0.05023070426442332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.0495037557564969</v>
+        <v>-0.05194914035804428</v>
       </c>
       <c r="C50">
-        <v>-0.0140262952387269</v>
+        <v>-0.01250573678227308</v>
       </c>
       <c r="D50">
-        <v>0.02402704273564229</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02649843029746693</v>
+      </c>
+      <c r="E50">
+        <v>0.02974002903560351</v>
+      </c>
+      <c r="F50">
+        <v>0.01038648502848608</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1529682308138643</v>
+        <v>-0.1463570736247505</v>
       </c>
       <c r="C52">
-        <v>-0.02316638281958381</v>
+        <v>-0.02045446808349981</v>
       </c>
       <c r="D52">
-        <v>0.04148967933557079</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04406986098986979</v>
+      </c>
+      <c r="E52">
+        <v>0.02657431675973615</v>
+      </c>
+      <c r="F52">
+        <v>0.0409492052340172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1749121305972809</v>
+        <v>-0.1682166908409648</v>
       </c>
       <c r="C53">
-        <v>-0.02541578527036987</v>
+        <v>-0.02420714751075488</v>
       </c>
       <c r="D53">
-        <v>0.005455658932581034</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.008109361420194175</v>
+      </c>
+      <c r="E53">
+        <v>0.0325634436160018</v>
+      </c>
+      <c r="F53">
+        <v>0.07453287312733099</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01498636106920514</v>
+        <v>-0.01779455326748616</v>
       </c>
       <c r="C54">
-        <v>-0.01176678025070705</v>
+        <v>-0.01085738220022345</v>
       </c>
       <c r="D54">
-        <v>0.03030837864859284</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02889715501899425</v>
+      </c>
+      <c r="E54">
+        <v>0.02064874490935028</v>
+      </c>
+      <c r="F54">
+        <v>-0.005014930900211569</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1179358901987042</v>
+        <v>-0.1157524908633446</v>
       </c>
       <c r="C55">
-        <v>-0.02176514128758123</v>
+        <v>-0.02086987151454102</v>
       </c>
       <c r="D55">
-        <v>0.003373201855697837</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01077141025818896</v>
+      </c>
+      <c r="E55">
+        <v>0.03148023740885982</v>
+      </c>
+      <c r="F55">
+        <v>0.04534809630528931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1802662031488492</v>
+        <v>-0.174920031946829</v>
       </c>
       <c r="C56">
-        <v>-0.02322607292570674</v>
+        <v>-0.02237353602508789</v>
       </c>
       <c r="D56">
-        <v>-0.005675487997441966</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0004305423081792146</v>
+      </c>
+      <c r="E56">
+        <v>0.03371643872046331</v>
+      </c>
+      <c r="F56">
+        <v>0.05469537168162713</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04341767763871364</v>
+        <v>-0.04313414208011946</v>
       </c>
       <c r="C58">
-        <v>-0.003830394955389189</v>
+        <v>0.0006823442551701971</v>
       </c>
       <c r="D58">
-        <v>0.06735231559352332</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.076676385142725</v>
+      </c>
+      <c r="E58">
+        <v>0.03851183162506928</v>
+      </c>
+      <c r="F58">
+        <v>-0.03464370851392991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1640596885162967</v>
+        <v>-0.1702173349066993</v>
       </c>
       <c r="C59">
-        <v>-0.02151535837850014</v>
+        <v>-0.02719205319329298</v>
       </c>
       <c r="D59">
-        <v>-0.2194698221496884</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2148689763686991</v>
+      </c>
+      <c r="E59">
+        <v>-0.05224459341577401</v>
+      </c>
+      <c r="F59">
+        <v>-0.04133623900608979</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.235757378695591</v>
+        <v>-0.228150493722525</v>
       </c>
       <c r="C60">
-        <v>-0.007319503945427133</v>
+        <v>-0.003160966944400202</v>
       </c>
       <c r="D60">
-        <v>0.03948204388958163</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03996456945813762</v>
+      </c>
+      <c r="E60">
+        <v>-0.004585266061165774</v>
+      </c>
+      <c r="F60">
+        <v>0.006188624452354846</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.07859572249984433</v>
+        <v>-0.07316214697261056</v>
       </c>
       <c r="C61">
-        <v>-0.01694753403692013</v>
+        <v>-0.01121519408610259</v>
       </c>
       <c r="D61">
-        <v>0.1132109264515832</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1183286045303492</v>
+      </c>
+      <c r="E61">
+        <v>0.04378691235989483</v>
+      </c>
+      <c r="F61">
+        <v>0.01014131803655826</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1721701973429044</v>
+        <v>-0.1679517503130498</v>
       </c>
       <c r="C62">
-        <v>-0.02668187623407901</v>
+        <v>-0.02477219887823974</v>
       </c>
       <c r="D62">
-        <v>0.00175756999477381</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.009114942993781362</v>
+      </c>
+      <c r="E62">
+        <v>0.03678109567483577</v>
+      </c>
+      <c r="F62">
+        <v>0.04052626910196656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.0429711304718696</v>
+        <v>-0.0471043363847136</v>
       </c>
       <c r="C63">
-        <v>-0.005981759144602561</v>
+        <v>-0.002923822610521907</v>
       </c>
       <c r="D63">
-        <v>0.05390384389551175</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06349163993293913</v>
+      </c>
+      <c r="E63">
+        <v>0.0250644149578243</v>
+      </c>
+      <c r="F63">
+        <v>0.001514798590647173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1145798386545367</v>
+        <v>-0.1116703190922985</v>
       </c>
       <c r="C64">
-        <v>-0.01860311822720414</v>
+        <v>-0.01491099733869705</v>
       </c>
       <c r="D64">
-        <v>0.03678614452209805</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0434823421839341</v>
+      </c>
+      <c r="E64">
+        <v>0.02735185691088293</v>
+      </c>
+      <c r="F64">
+        <v>0.02710280637130766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1477521972922552</v>
+        <v>-0.1548020132863108</v>
       </c>
       <c r="C65">
-        <v>-0.03939386077544394</v>
+        <v>-0.03870541139059834</v>
       </c>
       <c r="D65">
-        <v>-0.04992972604713923</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03974906498331986</v>
+      </c>
+      <c r="E65">
+        <v>0.006651412860844499</v>
+      </c>
+      <c r="F65">
+        <v>0.03858910591784325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.129385040859753</v>
+        <v>-0.1161725878414178</v>
       </c>
       <c r="C66">
-        <v>-0.02175916740644371</v>
+        <v>-0.01465731121670089</v>
       </c>
       <c r="D66">
-        <v>0.1355127879805471</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1426426288365</v>
+      </c>
+      <c r="E66">
+        <v>0.06796313424219454</v>
+      </c>
+      <c r="F66">
+        <v>0.02785024929454636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06294416443886364</v>
+        <v>-0.05574904892036154</v>
       </c>
       <c r="C67">
-        <v>-0.007160163633276284</v>
+        <v>-0.004625125415670384</v>
       </c>
       <c r="D67">
-        <v>0.05373722961881233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05746200347274381</v>
+      </c>
+      <c r="E67">
+        <v>0.02478320768965089</v>
+      </c>
+      <c r="F67">
+        <v>-0.03378361351988338</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1130062378343172</v>
+        <v>-0.1214025381630289</v>
       </c>
       <c r="C68">
-        <v>-0.02971133163969009</v>
+        <v>-0.03746252030758439</v>
       </c>
       <c r="D68">
-        <v>-0.2617633349250543</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2579969419410057</v>
+      </c>
+      <c r="E68">
+        <v>-0.08599661831180562</v>
+      </c>
+      <c r="F68">
+        <v>0.002104841237055242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03939323837147296</v>
+        <v>-0.03890658304034603</v>
       </c>
       <c r="C69">
-        <v>-0.002964872803318833</v>
+        <v>-0.00191201701186101</v>
       </c>
       <c r="D69">
-        <v>0.0104534908033619</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01111773236722033</v>
+      </c>
+      <c r="E69">
+        <v>0.02859839446400699</v>
+      </c>
+      <c r="F69">
+        <v>-0.000358532615033127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06924901674891923</v>
+        <v>-0.06895669050220567</v>
       </c>
       <c r="C70">
-        <v>0.0229108293141932</v>
+        <v>0.02530491432094339</v>
       </c>
       <c r="D70">
-        <v>0.02771923523991602</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.03177492817882001</v>
+      </c>
+      <c r="E70">
+        <v>-0.02744324819209495</v>
+      </c>
+      <c r="F70">
+        <v>-0.18557637839512</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1316465854558856</v>
+        <v>-0.141775244794852</v>
       </c>
       <c r="C71">
-        <v>-0.0347627357819836</v>
+        <v>-0.04249059389443503</v>
       </c>
       <c r="D71">
-        <v>-0.2766150776790163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2678127396776108</v>
+      </c>
+      <c r="E71">
+        <v>-0.09730316540471248</v>
+      </c>
+      <c r="F71">
+        <v>0.006616940729344318</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1375127377617717</v>
+        <v>-0.1439416553606838</v>
       </c>
       <c r="C72">
-        <v>-0.03098499417439192</v>
+        <v>-0.03075331204423118</v>
       </c>
       <c r="D72">
-        <v>0.002742895261522475</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0003135347712752849</v>
+      </c>
+      <c r="E72">
+        <v>0.03948734585964083</v>
+      </c>
+      <c r="F72">
+        <v>0.02993147727094079</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.200757232932637</v>
+        <v>-0.2032218519153642</v>
       </c>
       <c r="C73">
-        <v>-0.02074087262832116</v>
+        <v>-0.01659879857751698</v>
       </c>
       <c r="D73">
-        <v>0.01150764351896622</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01862060183223114</v>
+      </c>
+      <c r="E73">
+        <v>0.0629118981719005</v>
+      </c>
+      <c r="F73">
+        <v>0.04120851808841897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08786599899446679</v>
+        <v>-0.08896258001043494</v>
       </c>
       <c r="C74">
-        <v>-0.01510256604433393</v>
+        <v>-0.014069805117234</v>
       </c>
       <c r="D74">
-        <v>0.01263857337888341</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01667299143671886</v>
+      </c>
+      <c r="E74">
+        <v>0.04448701285252579</v>
+      </c>
+      <c r="F74">
+        <v>0.05110579544498182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1319846675550791</v>
+        <v>-0.12413781046326</v>
       </c>
       <c r="C75">
-        <v>-0.03362813410577267</v>
+        <v>-0.03113394071246849</v>
       </c>
       <c r="D75">
-        <v>0.02523180261629245</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03171472235480645</v>
+      </c>
+      <c r="E75">
+        <v>0.05921746211146119</v>
+      </c>
+      <c r="F75">
+        <v>0.02163697260640315</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08070080251483588</v>
+        <v>-0.09198293935456549</v>
       </c>
       <c r="C77">
-        <v>-0.01518461461086802</v>
+        <v>-0.009961954143329286</v>
       </c>
       <c r="D77">
-        <v>0.1172329181836124</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1204919273537865</v>
+      </c>
+      <c r="E77">
+        <v>0.04469992535226373</v>
+      </c>
+      <c r="F77">
+        <v>0.03481662349933135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.09903925671661559</v>
+        <v>-0.0997738918198206</v>
       </c>
       <c r="C78">
-        <v>-0.04577806647170082</v>
+        <v>-0.04134003550264567</v>
       </c>
       <c r="D78">
-        <v>0.1138576488761749</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1121345020057854</v>
+      </c>
+      <c r="E78">
+        <v>0.07343969288288645</v>
+      </c>
+      <c r="F78">
+        <v>0.0521180715066059</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1690414218150993</v>
+        <v>-0.1645674705086722</v>
       </c>
       <c r="C79">
-        <v>-0.03002204846388353</v>
+        <v>-0.0278931536745637</v>
       </c>
       <c r="D79">
-        <v>0.01048599362510329</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01748483428246678</v>
+      </c>
+      <c r="E79">
+        <v>0.04864249570035555</v>
+      </c>
+      <c r="F79">
+        <v>0.0131027339266046</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07985317315194589</v>
+        <v>-0.07843621689204325</v>
       </c>
       <c r="C80">
-        <v>-0.003703460420503894</v>
+        <v>-0.0008721123932221174</v>
       </c>
       <c r="D80">
-        <v>0.05279909550117487</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05222455885852587</v>
+      </c>
+      <c r="E80">
+        <v>0.03731779743425925</v>
+      </c>
+      <c r="F80">
+        <v>-0.02875542719015071</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1184483792786499</v>
+        <v>-0.1132275188737029</v>
       </c>
       <c r="C81">
-        <v>-0.03522922270906597</v>
+        <v>-0.03400685780117133</v>
       </c>
       <c r="D81">
-        <v>0.006291842184633283</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01196441844383911</v>
+      </c>
+      <c r="E81">
+        <v>0.05383266261410678</v>
+      </c>
+      <c r="F81">
+        <v>0.01731059922053303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1643899897360966</v>
+        <v>-0.1628691439660807</v>
       </c>
       <c r="C82">
-        <v>-0.02959595182175991</v>
+        <v>-0.02914004530939293</v>
       </c>
       <c r="D82">
-        <v>0.004835579352061944</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003805329869413766</v>
+      </c>
+      <c r="E82">
+        <v>0.02887839479799872</v>
+      </c>
+      <c r="F82">
+        <v>0.08219258306070315</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.05875296918770179</v>
+        <v>-0.05335855284637451</v>
       </c>
       <c r="C83">
-        <v>-0.005779946308851002</v>
+        <v>-0.003555149939699477</v>
       </c>
       <c r="D83">
-        <v>0.0386066557064073</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04031061980520266</v>
+      </c>
+      <c r="E83">
+        <v>-0.004797141646050791</v>
+      </c>
+      <c r="F83">
+        <v>-0.03545997132496746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05965133167205984</v>
+        <v>-0.05515876030454939</v>
       </c>
       <c r="C84">
-        <v>-0.01408817858232774</v>
+        <v>-0.0110527085687965</v>
       </c>
       <c r="D84">
-        <v>0.07699924461216212</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07806551037889803</v>
+      </c>
+      <c r="E84">
+        <v>0.01347150253103748</v>
+      </c>
+      <c r="F84">
+        <v>0.01641597534115597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1396905455243311</v>
+        <v>-0.1348252150419516</v>
       </c>
       <c r="C85">
-        <v>-0.03320156542251426</v>
+        <v>-0.03193721296327093</v>
       </c>
       <c r="D85">
-        <v>0.00684073565894347</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01100409313392527</v>
+      </c>
+      <c r="E85">
+        <v>0.04155662117957892</v>
+      </c>
+      <c r="F85">
+        <v>0.0483690152671078</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.09984475825722489</v>
+        <v>-0.09246141909547356</v>
       </c>
       <c r="C86">
-        <v>0.001423916945739846</v>
+        <v>0.005039382435470237</v>
       </c>
       <c r="D86">
-        <v>0.02270386242745495</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05719046875159196</v>
+      </c>
+      <c r="E86">
+        <v>0.2160748553227406</v>
+      </c>
+      <c r="F86">
+        <v>-0.897490007937144</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09421191752644684</v>
+        <v>-0.09119085956436508</v>
       </c>
       <c r="C87">
-        <v>-0.02944662697842482</v>
+        <v>-0.02142636375928585</v>
       </c>
       <c r="D87">
-        <v>0.07212773396971037</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09041335374316183</v>
+      </c>
+      <c r="E87">
+        <v>-0.06434912421125913</v>
+      </c>
+      <c r="F87">
+        <v>0.04993686968783025</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06248352349654536</v>
+        <v>-0.06122995535626789</v>
       </c>
       <c r="C88">
-        <v>-0.0066272269136036</v>
+        <v>-0.003608540653704109</v>
       </c>
       <c r="D88">
-        <v>0.0507684738964201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.05109360823275003</v>
+      </c>
+      <c r="E88">
+        <v>0.02747912322114887</v>
+      </c>
+      <c r="F88">
+        <v>0.01417402768372422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1231984600173452</v>
+        <v>-0.1312522348805181</v>
       </c>
       <c r="C89">
-        <v>-0.01031706987054542</v>
+        <v>-0.0176059911115906</v>
       </c>
       <c r="D89">
-        <v>-0.2378339526582685</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2403973392311303</v>
+      </c>
+      <c r="E89">
+        <v>-0.0867191331433054</v>
+      </c>
+      <c r="F89">
+        <v>-0.007426979160380342</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1422546279842953</v>
+        <v>-0.1562015081196748</v>
       </c>
       <c r="C90">
-        <v>-0.03062529463297155</v>
+        <v>-0.03911449120228708</v>
       </c>
       <c r="D90">
-        <v>-0.2625732987089563</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2654823924479007</v>
+      </c>
+      <c r="E90">
+        <v>-0.1165093875895693</v>
+      </c>
+      <c r="F90">
+        <v>-0.007835888803977191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1245251623311191</v>
+        <v>-0.1210950349873451</v>
       </c>
       <c r="C91">
-        <v>-0.02422655085566052</v>
+        <v>-0.02356787857029646</v>
       </c>
       <c r="D91">
-        <v>-0.01851426179105816</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01375543932225169</v>
+      </c>
+      <c r="E91">
+        <v>0.05696943845260891</v>
+      </c>
+      <c r="F91">
+        <v>-0.003092541831868228</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1439657781507693</v>
+        <v>-0.1497908595616872</v>
       </c>
       <c r="C92">
-        <v>-0.02177566299248267</v>
+        <v>-0.03028160475957137</v>
       </c>
       <c r="D92">
-        <v>-0.2913306318415125</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2904400836766466</v>
+      </c>
+      <c r="E92">
+        <v>-0.1031722184094712</v>
+      </c>
+      <c r="F92">
+        <v>-0.02255308069451397</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1476418588886189</v>
+        <v>-0.1593018620198575</v>
       </c>
       <c r="C93">
-        <v>-0.02736428891273723</v>
+        <v>-0.03442076694515012</v>
       </c>
       <c r="D93">
-        <v>-0.259317987317716</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2586393756446073</v>
+      </c>
+      <c r="E93">
+        <v>-0.07244150647733776</v>
+      </c>
+      <c r="F93">
+        <v>0.004902302333317468</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1314932238980645</v>
+        <v>-0.1238310311917079</v>
       </c>
       <c r="C94">
-        <v>-0.02992421090080416</v>
+        <v>-0.02682297410042709</v>
       </c>
       <c r="D94">
-        <v>0.04059225043547317</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04465793044711274</v>
+      </c>
+      <c r="E94">
+        <v>0.05930892368947655</v>
+      </c>
+      <c r="F94">
+        <v>0.03218177199154687</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1260309939216897</v>
+        <v>-0.1279952292104388</v>
       </c>
       <c r="C95">
-        <v>-0.01188344072504928</v>
+        <v>-0.006410735568079332</v>
       </c>
       <c r="D95">
-        <v>0.09057564396298545</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1012696632654893</v>
+      </c>
+      <c r="E95">
+        <v>0.06065219963554699</v>
+      </c>
+      <c r="F95">
+        <v>0.004079765392796782</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1448697191824745</v>
+        <v>-0.1340643670985098</v>
       </c>
       <c r="C96">
-        <v>0.9836791345493725</v>
+        <v>0.9840769615117443</v>
       </c>
       <c r="D96">
-        <v>-0.0254731993299196</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.05462706936042601</v>
+      </c>
+      <c r="E96">
+        <v>0.04991594131751593</v>
+      </c>
+      <c r="F96">
+        <v>0.04192069427158195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1893929410903094</v>
+        <v>-0.1926954571995523</v>
       </c>
       <c r="C97">
-        <v>-7.823282360162263e-05</v>
+        <v>0.0009681342192461048</v>
       </c>
       <c r="D97">
-        <v>-0.02541339700537795</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.02789046591304183</v>
+      </c>
+      <c r="E97">
+        <v>0.02798130221511766</v>
+      </c>
+      <c r="F97">
+        <v>-0.1120485640734665</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1964317666265758</v>
+        <v>-0.2026997353037437</v>
       </c>
       <c r="C98">
-        <v>-0.01496154449754181</v>
+        <v>-0.01049964496543101</v>
       </c>
       <c r="D98">
-        <v>0.008373345214293601</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01143438044877767</v>
+      </c>
+      <c r="E98">
+        <v>-0.07356639941704941</v>
+      </c>
+      <c r="F98">
+        <v>-0.1004463664486612</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05697320450345093</v>
+        <v>-0.05647779768103887</v>
       </c>
       <c r="C99">
-        <v>0.0008603302990342872</v>
+        <v>0.002930692691528105</v>
       </c>
       <c r="D99">
-        <v>0.03833182180308829</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.04326450323131126</v>
+      </c>
+      <c r="E99">
+        <v>0.02380406568405232</v>
+      </c>
+      <c r="F99">
+        <v>0.005106369688906934</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1447076046712509</v>
+        <v>-0.1314850046586121</v>
       </c>
       <c r="C100">
-        <v>0.03610477970372914</v>
+        <v>0.04816912922005853</v>
       </c>
       <c r="D100">
-        <v>0.3974402896560708</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3596389720546198</v>
+      </c>
+      <c r="E100">
+        <v>-0.8832608559405312</v>
+      </c>
+      <c r="F100">
+        <v>-0.1417585747518317</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02522807687429835</v>
+        <v>-0.02776856954594054</v>
       </c>
       <c r="C101">
-        <v>-0.009671618109682206</v>
+        <v>-0.009001188831357072</v>
       </c>
       <c r="D101">
-        <v>0.03057049248745899</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.03050927741083229</v>
+      </c>
+      <c r="E101">
+        <v>0.01617950307701198</v>
+      </c>
+      <c r="F101">
+        <v>-0.01496083302818034</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
